--- a/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
+++ b/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/metagomics/susvsink/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B29A8A10-A650-ED47-9E3F-2B5815E8F88D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172C9FC3-021F-B745-8006-7030CA8417BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="5560" windowWidth="26040" windowHeight="14940" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
+    <workbookView xWindow="2980" yWindow="3860" windowWidth="26040" windowHeight="14940" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,98 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>JA2</t>
+  </si>
+  <si>
+    <t>Sus/Sink</t>
+  </si>
+  <si>
+    <t>JA14</t>
+  </si>
+  <si>
+    <t>264+265</t>
+  </si>
+  <si>
+    <t>268+269</t>
+  </si>
+  <si>
+    <t>Depth (m)</t>
+  </si>
+  <si>
+    <t>sus</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>% GO spectra - biological process</t>
+  </si>
+  <si>
+    <t>photosynthesis</t>
+  </si>
+  <si>
+    <t>organic substance metabolic process</t>
+  </si>
+  <si>
+    <t>nitrogen compound metabolic process</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>protein metabolic process</t>
+  </si>
+  <si>
+    <t>% GO spectra - cellular component</t>
+  </si>
+  <si>
+    <t>cytosolic</t>
+  </si>
+  <si>
+    <t>chloroplast</t>
+  </si>
+  <si>
+    <t>membrane</t>
+  </si>
+  <si>
+    <t>cell wall</t>
+  </si>
+  <si>
+    <t>% GO spectra - molecular function</t>
+  </si>
+  <si>
+    <t>protein binding</t>
+  </si>
+  <si>
+    <t>catalytic function</t>
+  </si>
+  <si>
+    <t>organic cyclic compound binding</t>
+  </si>
+  <si>
+    <t>metal ion binding</t>
+  </si>
+  <si>
+    <t>nucleotide binding</t>
+  </si>
+  <si>
+    <t>*this squares with Bergauer et al 2018, but not very specific in terms of substrate!</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -34,16 +123,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +181,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +539,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD53EBE-D2D2-9B43-AAF1-36618F3EEAE2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="14.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="10"/>
+    <col min="8" max="8" width="17.1640625" style="10" customWidth="1"/>
+    <col min="9" max="14" width="10.83203125" style="10"/>
+    <col min="15" max="15" width="19.83203125" style="10" customWidth="1"/>
+    <col min="16" max="62" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" s="1" customFormat="1" ht="29" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+    </row>
+    <row r="2" spans="1:62" s="2" customFormat="1" ht="32">
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="9"/>
+    </row>
+    <row r="3" spans="1:62">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.119554204660587</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.17527862208713199</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.110097939885173</v>
+      </c>
+      <c r="G3" s="10">
+        <v>7.1597433299560906E-2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.11448834853090099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>965</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.13043478260869501</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.115942028985507</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.21014492753623101</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4.9001820000000001E-2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.1215971</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.10163339</v>
+      </c>
+      <c r="G5" s="10">
+        <v>6.5335749999999998E-2</v>
+      </c>
+      <c r="H5" s="10">
+        <v>4.9001820000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>965</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10">
+        <v>9.1491308325708997E-4</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.18389752973467499</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.161939615736505</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.103385178408051</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.132662397072278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62">
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
+++ b/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/metagomics/susvsink/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172C9FC3-021F-B745-8006-7030CA8417BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3776825-C644-1B4B-AAFB-D0E1ABCDA174}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="3860" windowWidth="26040" windowHeight="14940" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
+    <workbookView xWindow="2540" yWindow="3520" windowWidth="26040" windowHeight="14940" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -749,6 +749,18 @@
       <c r="H3" s="10">
         <v>0.11448834853090099</v>
       </c>
+      <c r="I3" s="10">
+        <v>7.66632894292468E-2</v>
+      </c>
+      <c r="J3" s="10">
+        <v>6.4842958459979699E-2</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.18034447821681801</v>
+      </c>
+      <c r="L3" s="10">
+        <v>5.3698074974670697E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:62">
       <c r="A4" t="s">
@@ -775,6 +787,18 @@
       <c r="H4" s="10">
         <v>0</v>
       </c>
+      <c r="I4" s="10">
+        <v>0.123188405797101</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.108695652173913</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.137681159420289</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.123188405797101</v>
+      </c>
     </row>
     <row r="5" spans="1:62">
       <c r="A5" t="s">
@@ -801,6 +825,18 @@
       <c r="H5" s="10">
         <v>4.9001820000000001E-2</v>
       </c>
+      <c r="I5" s="10">
+        <v>7.8039929999999993E-2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>5.4446460000000002E-2</v>
+      </c>
+      <c r="K5" s="10">
+        <v>8.5299459999999994E-2</v>
+      </c>
+      <c r="L5" s="10">
+        <v>4.9001820000000001E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:62">
       <c r="A6" t="s">
@@ -826,6 +862,18 @@
       </c>
       <c r="H6" s="10">
         <v>0.132662397072278</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.13357731</v>
+      </c>
+      <c r="J6" s="10">
+        <v>8.6916740000000006E-2</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.11619396</v>
+      </c>
+      <c r="L6" s="10">
+        <v>9.2406219999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:62">
@@ -840,5 +888,6 @@
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
+++ b/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/metagomics/susvsink/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3776825-C644-1B4B-AAFB-D0E1ABCDA174}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8680F7B9-4EBC-564C-8269-FEB9FEE2560F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="3520" windowWidth="26040" windowHeight="14940" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
+    <workbookView xWindow="3120" yWindow="5420" windowWidth="26040" windowHeight="14940" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="ja2" sheetId="6" r:id="rId2"/>
+    <sheet name="ja14" sheetId="3" r:id="rId3"/>
+    <sheet name="264+265" sheetId="4" r:id="rId4"/>
+    <sheet name="268+269" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Sample</t>
   </si>
@@ -57,9 +61,6 @@
     <t>% GO spectra - biological process</t>
   </si>
   <si>
-    <t>photosynthesis</t>
-  </si>
-  <si>
     <t>organic substance metabolic process</t>
   </si>
   <si>
@@ -75,18 +76,6 @@
     <t>% GO spectra - cellular component</t>
   </si>
   <si>
-    <t>cytosolic</t>
-  </si>
-  <si>
-    <t>chloroplast</t>
-  </si>
-  <si>
-    <t>membrane</t>
-  </si>
-  <si>
-    <t>cell wall</t>
-  </si>
-  <si>
     <t>% GO spectra - molecular function</t>
   </si>
   <si>
@@ -105,7 +94,43 @@
     <t>nucleotide binding</t>
   </si>
   <si>
-    <t>*this squares with Bergauer et al 2018, but not very specific in terms of substrate!</t>
+    <t>photosynthesis % spectra</t>
+  </si>
+  <si>
+    <t>photosynethesis spectral counts</t>
+  </si>
+  <si>
+    <t>chloroplast % spectra</t>
+  </si>
+  <si>
+    <t>chloroplast spectral counts</t>
+  </si>
+  <si>
+    <t>cytosolic spectral counts</t>
+  </si>
+  <si>
+    <t>cytosolic % spectra</t>
+  </si>
+  <si>
+    <t>membrane % spectra</t>
+  </si>
+  <si>
+    <t>membrane spectral counts</t>
+  </si>
+  <si>
+    <t>cell wall % spectra</t>
+  </si>
+  <si>
+    <t>cell wall spectral counts</t>
+  </si>
+  <si>
+    <t>extracellular % spectra</t>
+  </si>
+  <si>
+    <t>extracellular spectral counts</t>
+  </si>
+  <si>
+    <t>Total MS1 spectra</t>
   </si>
 </sst>
 </file>
@@ -194,22 +219,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,6 +241,23 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,27 +572,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD53EBE-D2D2-9B43-AAF1-36618F3EEAE2}">
-  <dimension ref="A1:BJ9"/>
+  <dimension ref="A1:BR6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="10"/>
-    <col min="8" max="8" width="17.1640625" style="10" customWidth="1"/>
-    <col min="9" max="14" width="10.83203125" style="10"/>
-    <col min="15" max="15" width="19.83203125" style="10" customWidth="1"/>
-    <col min="16" max="62" width="10.83203125" style="10"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="7"/>
+    <col min="10" max="10" width="17.1640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="7"/>
+    <col min="12" max="12" width="10.83203125" style="13"/>
+    <col min="13" max="13" width="10.83203125" style="7"/>
+    <col min="14" max="14" width="10.83203125" style="13"/>
+    <col min="15" max="15" width="10.83203125" style="7"/>
+    <col min="16" max="16" width="10.83203125" style="13"/>
+    <col min="17" max="17" width="10.83203125" style="7"/>
+    <col min="18" max="18" width="10.83203125" style="13"/>
+    <col min="19" max="19" width="12.1640625" style="13" customWidth="1"/>
+    <col min="20" max="20" width="12" style="13" customWidth="1"/>
+    <col min="21" max="22" width="10.83203125" style="7"/>
+    <col min="23" max="23" width="19.83203125" style="7" customWidth="1"/>
+    <col min="24" max="70" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="1" customFormat="1" ht="29" customHeight="1">
+    <row r="1" spans="1:70" s="1" customFormat="1" ht="29" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,162 +614,193 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5" t="s">
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+    </row>
+    <row r="2" spans="1:70" s="2" customFormat="1" ht="48">
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
     </row>
-    <row r="2" spans="1:62" s="2" customFormat="1" ht="32">
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="9"/>
-    </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:70">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -734,35 +810,68 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10">
+      <c r="E3" s="7">
         <v>0.119554204660587</v>
       </c>
-      <c r="E3" s="10">
+      <c r="F3" s="13">
+        <v>354</v>
+      </c>
+      <c r="G3" s="7">
         <v>0.17527862208713199</v>
       </c>
-      <c r="F3" s="10">
+      <c r="H3" s="7">
         <v>0.110097939885173</v>
       </c>
-      <c r="G3" s="10">
+      <c r="I3" s="7">
         <v>7.1597433299560906E-2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="J3" s="7">
         <v>0.11448834853090099</v>
       </c>
-      <c r="I3" s="10">
+      <c r="K3" s="7">
         <v>7.66632894292468E-2</v>
       </c>
-      <c r="J3" s="10">
+      <c r="L3" s="13">
+        <v>1247</v>
+      </c>
+      <c r="M3" s="7">
         <v>6.4842958459979699E-2</v>
       </c>
-      <c r="K3" s="10">
+      <c r="N3">
+        <v>864</v>
+      </c>
+      <c r="O3" s="7">
         <v>0.18034447821681801</v>
       </c>
-      <c r="L3" s="10">
+      <c r="P3" s="13">
+        <v>4836</v>
+      </c>
+      <c r="Q3" s="7">
         <v>5.3698074974670697E-2</v>
       </c>
+      <c r="R3" s="13">
+        <v>348</v>
+      </c>
+      <c r="T3" s="13">
+        <v>629</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0.10976021614319401</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0.13441404930766601</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0.190138466734211</v>
+      </c>
+      <c r="X3" s="7">
+        <v>9.5575818980074195E-2</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0.113812901046943</v>
+      </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:70">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -772,35 +881,68 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10">
+      <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="10">
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
         <v>0.13043478260869501</v>
       </c>
-      <c r="F4" s="10">
+      <c r="H4" s="7">
         <v>0.115942028985507</v>
       </c>
-      <c r="G4" s="10">
+      <c r="I4" s="7">
         <v>0.21014492753623101</v>
       </c>
-      <c r="H4" s="10">
+      <c r="J4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="10">
+      <c r="K4" s="7">
         <v>0.123188405797101</v>
       </c>
-      <c r="J4" s="10">
+      <c r="L4" s="13">
+        <v>67</v>
+      </c>
+      <c r="M4" s="7">
         <v>0.108695652173913</v>
       </c>
-      <c r="K4" s="10">
+      <c r="N4" s="13">
+        <v>94</v>
+      </c>
+      <c r="O4" s="7">
         <v>0.137681159420289</v>
       </c>
-      <c r="L4" s="10">
+      <c r="P4" s="13">
+        <v>297</v>
+      </c>
+      <c r="Q4" s="7">
         <v>0.123188405797101</v>
       </c>
+      <c r="R4" s="13">
+        <v>48</v>
+      </c>
+      <c r="T4" s="13">
+        <v>29</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0.123188405797101</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0.15942028985507201</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0.123188405797101</v>
+      </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:70">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -810,35 +952,68 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="8">
         <v>4.9001820000000001E-2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
         <v>0.1215971</v>
       </c>
-      <c r="F5" s="10">
+      <c r="H5" s="7">
         <v>0.10163339</v>
       </c>
-      <c r="G5" s="10">
+      <c r="I5" s="7">
         <v>6.5335749999999998E-2</v>
       </c>
-      <c r="H5" s="10">
+      <c r="J5" s="7">
         <v>4.9001820000000001E-2</v>
       </c>
-      <c r="I5" s="10">
+      <c r="K5" s="7">
         <v>7.8039929999999993E-2</v>
       </c>
-      <c r="J5" s="10">
+      <c r="L5" s="13">
+        <v>160</v>
+      </c>
+      <c r="M5" s="7">
         <v>5.4446460000000002E-2</v>
       </c>
-      <c r="K5" s="10">
+      <c r="N5" s="13">
+        <v>106</v>
+      </c>
+      <c r="O5" s="7">
         <v>8.5299459999999994E-2</v>
       </c>
-      <c r="L5" s="10">
+      <c r="P5" s="13">
+        <v>594</v>
+      </c>
+      <c r="Q5" s="7">
         <v>4.9001820000000001E-2</v>
       </c>
+      <c r="R5" s="13">
+        <v>37</v>
+      </c>
+      <c r="T5" s="13">
+        <v>71</v>
+      </c>
+      <c r="U5" s="8">
+        <v>8.8929220000000003E-2</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0.11978221</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0.11978221</v>
+      </c>
+      <c r="X5" s="8">
+        <v>3.8112519999999997E-2</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>7.6225050000000003E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:70">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -848,46 +1023,122 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10">
+      <c r="E6" s="7">
         <v>9.1491308325708997E-4</v>
       </c>
-      <c r="E6" s="10">
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
         <v>0.18389752973467499</v>
       </c>
-      <c r="F6" s="10">
+      <c r="H6" s="7">
         <v>0.161939615736505</v>
       </c>
-      <c r="G6" s="10">
+      <c r="I6" s="7">
         <v>0.103385178408051</v>
       </c>
-      <c r="H6" s="10">
+      <c r="J6" s="7">
         <v>0.132662397072278</v>
       </c>
-      <c r="I6" s="10">
+      <c r="K6" s="7">
         <v>0.13357731</v>
       </c>
-      <c r="J6" s="10">
+      <c r="L6" s="13">
+        <v>503</v>
+      </c>
+      <c r="M6" s="7">
         <v>8.6916740000000006E-2</v>
       </c>
-      <c r="K6" s="10">
+      <c r="N6" s="13">
+        <v>478</v>
+      </c>
+      <c r="O6" s="7">
         <v>0.11619396</v>
       </c>
-      <c r="L6" s="10">
+      <c r="P6" s="13">
+        <v>2049</v>
+      </c>
+      <c r="Q6" s="7">
         <v>9.2406219999999997E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:62">
-      <c r="E9" s="10" t="s">
-        <v>26</v>
+      <c r="R6" s="13">
+        <v>751</v>
+      </c>
+      <c r="T6" s="13">
+        <v>519</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0.12625800548947799</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0.171088746569075</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0.18206770356816099</v>
+      </c>
+      <c r="X6" s="7">
+        <v>8.3257090576395201E-2</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0.143641354071363</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="U1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FFDEAB-F08E-1044-BFFA-A6353B149F59}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2886B21-0D2E-D24D-BAD2-DB38E51F4DD7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9878CE45-29EC-E647-9F3F-754E70544E9C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7F4A50-FDBF-4740-ABAD-658701796357}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
+++ b/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/metagomics/susvsink/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8680F7B9-4EBC-564C-8269-FEB9FEE2560F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EB6427-98D8-C345-8215-C314ABEFCF36}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="5420" windowWidth="26040" windowHeight="14940" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
+    <workbookView xWindow="1020" yWindow="4340" windowWidth="26040" windowHeight="14940" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,6 +256,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,7 +584,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -589,15 +596,15 @@
     <col min="8" max="8" width="21.33203125" style="7" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="7"/>
     <col min="10" max="10" width="17.1640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="7"/>
+    <col min="11" max="11" width="10.83203125" style="17"/>
     <col min="12" max="12" width="10.83203125" style="13"/>
-    <col min="13" max="13" width="10.83203125" style="7"/>
+    <col min="13" max="13" width="10.83203125" style="17"/>
     <col min="14" max="14" width="10.83203125" style="13"/>
-    <col min="15" max="15" width="10.83203125" style="7"/>
+    <col min="15" max="15" width="10.83203125" style="17"/>
     <col min="16" max="16" width="10.83203125" style="13"/>
-    <col min="17" max="17" width="10.83203125" style="7"/>
+    <col min="17" max="17" width="10.83203125" style="17"/>
     <col min="18" max="18" width="10.83203125" style="13"/>
-    <col min="19" max="19" width="12.1640625" style="13" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" style="17" customWidth="1"/>
     <col min="20" max="20" width="12" style="13" customWidth="1"/>
     <col min="21" max="22" width="10.83203125" style="7"/>
     <col min="23" max="23" width="19.83203125" style="7" customWidth="1"/>
@@ -635,7 +642,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="S1" s="18"/>
       <c r="T1" s="15"/>
       <c r="U1" s="11" t="s">
         <v>15</v>
@@ -709,31 +716,31 @@
       <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="16" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="16" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="16" t="s">
         <v>27</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="16" t="s">
         <v>29</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="16" t="s">
         <v>31</v>
       </c>
       <c r="T2" s="12" t="s">
@@ -810,6 +817,9 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="D3">
+        <v>19284</v>
+      </c>
       <c r="E3" s="7">
         <v>0.119554204660587</v>
       </c>
@@ -828,29 +838,37 @@
       <c r="J3" s="7">
         <v>0.11448834853090099</v>
       </c>
-      <c r="K3" s="7">
-        <v>7.66632894292468E-2</v>
+      <c r="K3" s="17">
+        <f>L3/$D3*100</f>
+        <v>6.4665007259904579</v>
       </c>
       <c r="L3" s="13">
         <v>1247</v>
       </c>
-      <c r="M3" s="7">
-        <v>6.4842958459979699E-2</v>
+      <c r="M3" s="17">
+        <f>N3/$D3*100</f>
+        <v>4.4803982576229</v>
       </c>
       <c r="N3">
         <v>864</v>
       </c>
-      <c r="O3" s="7">
-        <v>0.18034447821681801</v>
+      <c r="O3" s="17">
+        <f>P3/$D3*100</f>
+        <v>25.077784691972621</v>
       </c>
       <c r="P3" s="13">
         <v>4836</v>
       </c>
-      <c r="Q3" s="7">
-        <v>5.3698074974670697E-2</v>
+      <c r="Q3" s="17">
+        <f>R3/$D3*100</f>
+        <v>1.804604853764779</v>
       </c>
       <c r="R3" s="13">
         <v>348</v>
+      </c>
+      <c r="S3" s="17">
+        <f>T3/$D3*100</f>
+        <v>3.2617714167185232</v>
       </c>
       <c r="T3" s="13">
         <v>629</v>
@@ -881,6 +899,9 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="D4">
+        <v>20664</v>
+      </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
@@ -899,29 +920,37 @@
       <c r="J4" s="7">
         <v>0</v>
       </c>
-      <c r="K4" s="7">
-        <v>0.123188405797101</v>
+      <c r="K4" s="17">
+        <f t="shared" ref="K4:K6" si="0">L4/$D4*100</f>
+        <v>0.32423538521099499</v>
       </c>
       <c r="L4" s="13">
         <v>67</v>
       </c>
-      <c r="M4" s="7">
-        <v>0.108695652173913</v>
+      <c r="M4" s="17">
+        <f t="shared" ref="M4:M6" si="1">N4/$D4*100</f>
+        <v>0.45489740611691831</v>
       </c>
       <c r="N4" s="13">
         <v>94</v>
       </c>
-      <c r="O4" s="7">
-        <v>0.137681159420289</v>
+      <c r="O4" s="17">
+        <f t="shared" ref="O4:O6" si="2">P4/$D4*100</f>
+        <v>1.4372822299651569</v>
       </c>
       <c r="P4" s="13">
         <v>297</v>
       </c>
-      <c r="Q4" s="7">
-        <v>0.123188405797101</v>
+      <c r="Q4" s="17">
+        <f t="shared" ref="Q4:Q6" si="3">R4/$D4*100</f>
+        <v>0.23228803716608595</v>
       </c>
       <c r="R4" s="13">
         <v>48</v>
+      </c>
+      <c r="S4" s="17">
+        <f t="shared" ref="S4:S6" si="4">T4/$D4*100</f>
+        <v>0.14034068912117695</v>
       </c>
       <c r="T4" s="13">
         <v>29</v>
@@ -952,6 +981,9 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="D5">
+        <v>23057</v>
+      </c>
       <c r="E5" s="8">
         <v>4.9001820000000001E-2</v>
       </c>
@@ -970,29 +1002,37 @@
       <c r="J5" s="7">
         <v>4.9001820000000001E-2</v>
       </c>
-      <c r="K5" s="7">
-        <v>7.8039929999999993E-2</v>
+      <c r="K5" s="17">
+        <f t="shared" si="0"/>
+        <v>2.1815500715617815</v>
       </c>
       <c r="L5" s="13">
-        <v>160</v>
-      </c>
-      <c r="M5" s="7">
-        <v>5.4446460000000002E-2</v>
+        <v>503</v>
+      </c>
+      <c r="M5" s="17">
+        <f t="shared" si="1"/>
+        <v>0.45973023376848682</v>
       </c>
       <c r="N5" s="13">
         <v>106</v>
       </c>
-      <c r="O5" s="7">
-        <v>8.5299459999999994E-2</v>
+      <c r="O5" s="17">
+        <f t="shared" si="2"/>
+        <v>2.5762241401743506</v>
       </c>
       <c r="P5" s="13">
         <v>594</v>
       </c>
-      <c r="Q5" s="7">
-        <v>4.9001820000000001E-2</v>
+      <c r="Q5" s="17">
+        <f t="shared" si="3"/>
+        <v>0.16047187405126426</v>
       </c>
       <c r="R5" s="13">
         <v>37</v>
+      </c>
+      <c r="S5" s="17">
+        <f t="shared" si="4"/>
+        <v>0.30793251507134495</v>
       </c>
       <c r="T5" s="13">
         <v>71</v>
@@ -1023,6 +1063,9 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
+      <c r="D6">
+        <v>18656</v>
+      </c>
       <c r="E6" s="7">
         <v>9.1491308325708997E-4</v>
       </c>
@@ -1041,29 +1084,37 @@
       <c r="J6" s="7">
         <v>0.132662397072278</v>
       </c>
-      <c r="K6" s="7">
-        <v>0.13357731</v>
+      <c r="K6" s="17">
+        <f t="shared" si="0"/>
+        <v>0.85763293310463129</v>
       </c>
       <c r="L6" s="13">
-        <v>503</v>
-      </c>
-      <c r="M6" s="7">
-        <v>8.6916740000000006E-2</v>
+        <v>160</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="1"/>
+        <v>2.5621783876500857</v>
       </c>
       <c r="N6" s="13">
         <v>478</v>
       </c>
-      <c r="O6" s="7">
-        <v>0.11619396</v>
+      <c r="O6" s="17">
+        <f t="shared" si="2"/>
+        <v>10.983061749571183</v>
       </c>
       <c r="P6" s="13">
         <v>2049</v>
       </c>
-      <c r="Q6" s="7">
-        <v>9.2406219999999997E-2</v>
+      <c r="Q6" s="17">
+        <f t="shared" si="3"/>
+        <v>4.0255145797598626</v>
       </c>
       <c r="R6" s="13">
         <v>751</v>
+      </c>
+      <c r="S6" s="17">
+        <f t="shared" si="4"/>
+        <v>2.7819468267581473</v>
       </c>
       <c r="T6" s="13">
         <v>519</v>

--- a/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
+++ b/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/metagomics/susvsink/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EB6427-98D8-C345-8215-C314ABEFCF36}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CD8680-4C21-8A47-96DC-ECBF67BCA965}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="4340" windowWidth="26040" windowHeight="14940" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="25600" windowHeight="14640" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Sample</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>Total MS1 spectra</t>
+  </si>
+  <si>
+    <t>100 m suspended</t>
+  </si>
+  <si>
+    <t>965 m suspended</t>
+  </si>
+  <si>
+    <t>100 m sinking</t>
+  </si>
+  <si>
+    <t>965 m sinking</t>
   </si>
 </sst>
 </file>
@@ -280,6 +292,1893 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>% spectra cytosolic</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2DA9-3841-A994-3EDB36086A42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-2DA9-3841-A994-3EDB36086A42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-2DA9-3841-A994-3EDB36086A42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2DA9-3841-A994-3EDB36086A42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.1180227471566053E-2"/>
+                  <c:y val="-5.8755832604257804E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-2DA9-3841-A994-3EDB36086A42}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100 m suspended</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>965 m suspended</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 m sinking</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>965 m sinking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.4665007259904579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32423538521099499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1815500715617815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85763293310463129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DA9-3841-A994-3EDB36086A42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>% spectra membrane associated</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-442D-7A43-B0AD-51099CEEE27C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-442D-7A43-B0AD-51099CEEE27C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-442D-7A43-B0AD-51099CEEE27C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-442D-7A43-B0AD-51099CEEE27C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100 m suspended</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>965 m suspended</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 m sinking</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>965 m sinking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$P$3:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9195187720389959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4372822299651569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5762241401743506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.983061749571183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-442D-7A43-B0AD-51099CEEE27C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1354B710-CF9E-8244-85DA-87990877670A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19758545-4A6D-7C42-A210-C2A372C7874F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,79 +2478,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD53EBE-D2D2-9B43-AAF1-36618F3EEAE2}">
-  <dimension ref="A1:BR6"/>
+  <dimension ref="A1:BS6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="7"/>
-    <col min="10" max="10" width="17.1640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="17"/>
-    <col min="12" max="12" width="10.83203125" style="13"/>
-    <col min="13" max="13" width="10.83203125" style="17"/>
-    <col min="14" max="14" width="10.83203125" style="13"/>
-    <col min="15" max="15" width="10.83203125" style="17"/>
-    <col min="16" max="16" width="10.83203125" style="13"/>
-    <col min="17" max="17" width="10.83203125" style="17"/>
-    <col min="18" max="18" width="10.83203125" style="13"/>
-    <col min="19" max="19" width="12.1640625" style="17" customWidth="1"/>
-    <col min="20" max="20" width="12" style="13" customWidth="1"/>
-    <col min="21" max="22" width="10.83203125" style="7"/>
-    <col min="23" max="23" width="19.83203125" style="7" customWidth="1"/>
-    <col min="24" max="70" width="10.83203125" style="7"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="7"/>
+    <col min="11" max="11" width="17.1640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="17"/>
+    <col min="13" max="13" width="10.83203125" style="13"/>
+    <col min="14" max="14" width="10.83203125" style="17"/>
+    <col min="15" max="15" width="10.83203125" style="13"/>
+    <col min="16" max="16" width="10.83203125" style="17"/>
+    <col min="17" max="17" width="10.83203125" style="13"/>
+    <col min="18" max="18" width="10.83203125" style="17"/>
+    <col min="19" max="19" width="10.83203125" style="13"/>
+    <col min="20" max="20" width="12.1640625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="12" style="13" customWidth="1"/>
+    <col min="22" max="23" width="10.83203125" style="7"/>
+    <col min="24" max="24" width="19.83203125" style="7" customWidth="1"/>
+    <col min="25" max="71" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1" ht="29" customHeight="1">
+    <row r="1" spans="1:71" s="1" customFormat="1" ht="29" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="11" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="11"/>
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
       <c r="Y1" s="11"/>
-      <c r="Z1" s="3"/>
+      <c r="Z1" s="11"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
@@ -696,72 +2594,72 @@
       <c r="BP1" s="3"/>
       <c r="BQ1" s="3"/>
       <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
     </row>
-    <row r="2" spans="1:70" s="2" customFormat="1" ht="48">
-      <c r="E2" s="4" t="s">
+    <row r="2" spans="1:71" s="2" customFormat="1" ht="48">
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="T2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="U2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -806,343 +2704,357 @@
       <c r="BP2" s="6"/>
       <c r="BQ2" s="6"/>
       <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:71">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>100</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>19284</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
         <v>0.119554204660587</v>
       </c>
-      <c r="F3" s="13">
+      <c r="G3" s="13">
         <v>354</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <v>0.17527862208713199</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <v>0.110097939885173</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="7">
         <v>7.1597433299560906E-2</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>0.11448834853090099</v>
       </c>
-      <c r="K3" s="17">
-        <f>L3/$D3*100</f>
+      <c r="L3" s="17">
+        <f>M3/$E3*100</f>
         <v>6.4665007259904579</v>
       </c>
-      <c r="L3" s="13">
+      <c r="M3" s="13">
         <v>1247</v>
       </c>
-      <c r="M3" s="17">
-        <f>N3/$D3*100</f>
+      <c r="N3" s="17">
+        <f>O3/$E3*100</f>
         <v>4.4803982576229</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>864</v>
       </c>
-      <c r="O3" s="17">
-        <f>P3/$D3*100</f>
-        <v>25.077784691972621</v>
-      </c>
-      <c r="P3" s="13">
-        <v>4836</v>
-      </c>
-      <c r="Q3" s="17">
-        <f>R3/$D3*100</f>
+      <c r="P3" s="17">
+        <f>Q3/$E3*100</f>
+        <v>2.9195187720389959</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>563</v>
+      </c>
+      <c r="R3" s="17">
+        <f>S3/$E3*100</f>
         <v>1.804604853764779</v>
       </c>
-      <c r="R3" s="13">
+      <c r="S3" s="13">
         <v>348</v>
       </c>
-      <c r="S3" s="17">
-        <f>T3/$D3*100</f>
+      <c r="T3" s="17">
+        <f>U3/$E3*100</f>
         <v>3.2617714167185232</v>
       </c>
-      <c r="T3" s="13">
+      <c r="U3" s="13">
         <v>629</v>
       </c>
-      <c r="U3" s="7">
+      <c r="V3" s="7">
         <v>0.10976021614319401</v>
       </c>
-      <c r="V3" s="7">
+      <c r="W3" s="7">
         <v>0.13441404930766601</v>
       </c>
-      <c r="W3" s="7">
+      <c r="X3" s="7">
         <v>0.190138466734211</v>
       </c>
-      <c r="X3" s="7">
+      <c r="Y3" s="7">
         <v>9.5575818980074195E-2</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Z3" s="7">
         <v>0.113812901046943</v>
       </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:71">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
         <v>965</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>20664</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>0</v>
       </c>
-      <c r="F4" s="13">
+      <c r="G4" s="13">
         <v>0</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>0.13043478260869501</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
         <v>0.115942028985507</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="7">
         <v>0.21014492753623101</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="K4" s="17">
-        <f t="shared" ref="K4:K6" si="0">L4/$D4*100</f>
+      <c r="L4" s="17">
+        <f t="shared" ref="L4:L6" si="0">M4/$E4*100</f>
         <v>0.32423538521099499</v>
       </c>
-      <c r="L4" s="13">
+      <c r="M4" s="13">
         <v>67</v>
       </c>
-      <c r="M4" s="17">
-        <f t="shared" ref="M4:M6" si="1">N4/$D4*100</f>
+      <c r="N4" s="17">
+        <f t="shared" ref="N4:N6" si="1">O4/$E4*100</f>
         <v>0.45489740611691831</v>
       </c>
-      <c r="N4" s="13">
+      <c r="O4" s="13">
         <v>94</v>
       </c>
-      <c r="O4" s="17">
-        <f t="shared" ref="O4:O6" si="2">P4/$D4*100</f>
+      <c r="P4" s="17">
+        <f t="shared" ref="P4:P6" si="2">Q4/$E4*100</f>
         <v>1.4372822299651569</v>
       </c>
-      <c r="P4" s="13">
+      <c r="Q4" s="13">
         <v>297</v>
       </c>
-      <c r="Q4" s="17">
-        <f t="shared" ref="Q4:Q6" si="3">R4/$D4*100</f>
+      <c r="R4" s="17">
+        <f t="shared" ref="R4:R6" si="3">S4/$E4*100</f>
         <v>0.23228803716608595</v>
       </c>
-      <c r="R4" s="13">
+      <c r="S4" s="13">
         <v>48</v>
       </c>
-      <c r="S4" s="17">
-        <f t="shared" ref="S4:S6" si="4">T4/$D4*100</f>
+      <c r="T4" s="17">
+        <f t="shared" ref="T4:T6" si="4">U4/$E4*100</f>
         <v>0.14034068912117695</v>
       </c>
-      <c r="T4" s="13">
+      <c r="U4" s="13">
         <v>29</v>
       </c>
-      <c r="U4" s="7">
+      <c r="V4" s="7">
         <v>0.123188405797101</v>
       </c>
-      <c r="V4" s="7">
+      <c r="W4" s="7">
         <v>0.16666666666666599</v>
       </c>
-      <c r="W4" s="7">
+      <c r="X4" s="7">
         <v>0.15942028985507201</v>
       </c>
-      <c r="X4" s="7">
+      <c r="Y4" s="7">
         <v>0.16666666666666599</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Z4" s="7">
         <v>0.123188405797101</v>
       </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:71">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
         <v>94</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>23057</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>4.9001820000000001E-2</v>
       </c>
-      <c r="F5" s="14">
+      <c r="G5" s="14">
         <v>0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>0.1215971</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>0.10163339</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <v>6.5335749999999998E-2</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>4.9001820000000001E-2</v>
       </c>
-      <c r="K5" s="17">
+      <c r="L5" s="17">
         <f t="shared" si="0"/>
         <v>2.1815500715617815</v>
       </c>
-      <c r="L5" s="13">
+      <c r="M5" s="13">
         <v>503</v>
       </c>
-      <c r="M5" s="17">
+      <c r="N5" s="17">
         <f t="shared" si="1"/>
         <v>0.45973023376848682</v>
       </c>
-      <c r="N5" s="13">
+      <c r="O5" s="13">
         <v>106</v>
       </c>
-      <c r="O5" s="17">
+      <c r="P5" s="17">
         <f t="shared" si="2"/>
         <v>2.5762241401743506</v>
       </c>
-      <c r="P5" s="13">
+      <c r="Q5" s="13">
         <v>594</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="R5" s="17">
         <f t="shared" si="3"/>
         <v>0.16047187405126426</v>
       </c>
-      <c r="R5" s="13">
+      <c r="S5" s="13">
         <v>37</v>
       </c>
-      <c r="S5" s="17">
+      <c r="T5" s="17">
         <f t="shared" si="4"/>
         <v>0.30793251507134495</v>
       </c>
-      <c r="T5" s="13">
+      <c r="U5" s="13">
         <v>71</v>
       </c>
-      <c r="U5" s="8">
+      <c r="V5" s="8">
         <v>8.8929220000000003E-2</v>
-      </c>
-      <c r="V5" s="8">
-        <v>0.11978221</v>
       </c>
       <c r="W5" s="8">
         <v>0.11978221</v>
       </c>
       <c r="X5" s="8">
+        <v>0.11978221</v>
+      </c>
+      <c r="Y5" s="8">
         <v>3.8112519999999997E-2</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Z5" s="8">
         <v>7.6225050000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:71">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
         <v>965</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>18656</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
         <v>9.1491308325708997E-4</v>
       </c>
-      <c r="F6" s="13">
+      <c r="G6" s="13">
         <v>0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>0.18389752973467499</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>0.161939615736505</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>0.103385178408051</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>0.132662397072278</v>
       </c>
-      <c r="K6" s="17">
+      <c r="L6" s="17">
         <f t="shared" si="0"/>
         <v>0.85763293310463129</v>
       </c>
-      <c r="L6" s="13">
+      <c r="M6" s="13">
         <v>160</v>
       </c>
-      <c r="M6" s="17">
+      <c r="N6" s="17">
         <f t="shared" si="1"/>
         <v>2.5621783876500857</v>
       </c>
-      <c r="N6" s="13">
+      <c r="O6" s="13">
         <v>478</v>
       </c>
-      <c r="O6" s="17">
+      <c r="P6" s="17">
         <f t="shared" si="2"/>
         <v>10.983061749571183</v>
       </c>
-      <c r="P6" s="13">
+      <c r="Q6" s="13">
         <v>2049</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="R6" s="17">
         <f t="shared" si="3"/>
         <v>4.0255145797598626</v>
       </c>
-      <c r="R6" s="13">
+      <c r="S6" s="13">
         <v>751</v>
       </c>
-      <c r="S6" s="17">
+      <c r="T6" s="17">
         <f t="shared" si="4"/>
         <v>2.7819468267581473</v>
       </c>
-      <c r="T6" s="13">
+      <c r="U6" s="13">
         <v>519</v>
       </c>
-      <c r="U6" s="7">
+      <c r="V6" s="7">
         <v>0.12625800548947799</v>
       </c>
-      <c r="V6" s="7">
+      <c r="W6" s="7">
         <v>0.171088746569075</v>
       </c>
-      <c r="W6" s="7">
+      <c r="X6" s="7">
         <v>0.18206770356816099</v>
       </c>
-      <c r="X6" s="7">
+      <c r="Y6" s="7">
         <v>8.3257090576395201E-2</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Z6" s="7">
         <v>0.143641354071363</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
+++ b/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/metagomics/susvsink/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CD8680-4C21-8A47-96DC-ECBF67BCA965}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C80A297-2DB8-A843-BA90-6CABFD78C6FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="25600" windowHeight="14640" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
+    <workbookView xWindow="2940" yWindow="5820" windowWidth="26040" windowHeight="14940" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,18 @@
     <sheet name="264+265" sheetId="4" r:id="rId4"/>
     <sheet name="268+269" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">comparison!$B$3:$B$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">comparison!$L$3:$L$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">comparison!$B$3:$B$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">comparison!$L$3:$L$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">comparison!$B$3:$B$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">comparison!$L$3:$L$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">comparison!$B$3:$B$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">comparison!$L$3:$L$6</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">comparison!$B$3:$B$6</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">comparison!$L$3:$L$6</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -231,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,6 +287,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -322,7 +337,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -341,25 +356,36 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>% spectra cytosolic</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -371,15 +397,16 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -391,6 +418,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
@@ -398,10 +426,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -413,6 +439,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
@@ -420,10 +447,8 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -434,28 +459,6 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.1180227471566053E-2"/>
-                  <c:y val="-5.8755832604257804E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-2DA9-3841-A994-3EDB36086A42}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -470,9 +473,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -482,30 +488,32 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -556,17 +564,115 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1693857887"/>
+        <c:axId val="1789211807"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1693857887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789211807"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1789211807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1693857887"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -589,8 +695,8 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -678,7 +784,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -697,56 +803,69 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>% spectra membrane associated</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-442D-7A43-B0AD-51099CEEE27C}"/>
+                <c16:uniqueId val="{00000001-5089-034C-83A7-365557DCE498}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-442D-7A43-B0AD-51099CEEE27C}"/>
+                <c16:uniqueId val="{00000003-5089-034C-83A7-365557DCE498}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
@@ -754,21 +873,20 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-442D-7A43-B0AD-51099CEEE27C}"/>
+                <c16:uniqueId val="{00000005-5089-034C-83A7-365557DCE498}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
@@ -776,16 +894,14 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-442D-7A43-B0AD-51099CEEE27C}"/>
+                <c16:uniqueId val="{00000007-5089-034C-83A7-365557DCE498}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -804,9 +920,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -816,30 +935,32 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -885,22 +1006,122 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-442D-7A43-B0AD-51099CEEE27C}"/>
+              <c16:uniqueId val="{00000008-5089-034C-83A7-365557DCE498}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1693857887"/>
+        <c:axId val="1789211807"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1693857887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789211807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1789211807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1693857887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -923,8 +1144,8 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1065,7 +1286,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1122,7 +1343,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1173,13 +1394,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1190,19 +1404,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1240,7 +1447,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1283,23 +1490,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1404,8 +1610,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1537,20 +1743,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1584,7 +1789,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1641,7 +1846,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1692,13 +1897,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1709,19 +1907,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1759,7 +1950,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1802,23 +1993,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1923,8 +2113,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2056,20 +2246,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2155,10 +2344,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19758545-4A6D-7C42-A210-C2A372C7874F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3715D5B-DC99-F84A-B07B-7EDCA328F4AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,7 +2672,7 @@
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2511,9 +2700,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" s="1" customFormat="1" ht="29" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3047,10 +3237,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
+++ b/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/metagomics/susvsink/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C80A297-2DB8-A843-BA90-6CABFD78C6FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B8F247-6777-BD46-9ABC-68FEB80D7AB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="5820" windowWidth="26040" windowHeight="14940" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
+    <workbookView xWindow="5840" yWindow="2280" windowWidth="26040" windowHeight="14660" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="1" r:id="rId1"/>

--- a/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
+++ b/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/metagomics/susvsink/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B8F247-6777-BD46-9ABC-68FEB80D7AB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903623D-3A64-8F41-907E-D2516FF19ED8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="2280" windowWidth="26040" windowHeight="14660" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
+    <workbookView xWindow="2480" yWindow="7200" windowWidth="25600" windowHeight="14660" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,15 @@
     <sheet name="264+265" sheetId="4" r:id="rId4"/>
     <sheet name="268+269" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">comparison!$B$3:$B$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">comparison!$L$3:$L$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">comparison!$B$3:$B$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">comparison!$L$3:$L$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">comparison!$B$3:$B$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">comparison!$L$3:$L$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">comparison!$B$3:$B$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">comparison!$L$3:$L$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">comparison!$B$3:$B$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">comparison!$L$3:$L$6</definedName>
-  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -265,15 +258,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -287,6 +271,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -337,7 +330,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -382,7 +375,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -401,7 +394,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -422,9 +415,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="61000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -443,8 +436,8 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="50000"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -473,7 +466,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -592,10 +585,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -606,7 +596,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -622,6 +612,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1789211807"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -634,7 +625,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -642,10 +633,7 @@
           <a:noFill/>
           <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:ln>
           <a:effectLst/>
@@ -655,7 +643,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -671,6 +659,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1693857887"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -683,6 +672,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67040149684259764"/>
+          <c:y val="7.4454757401134913E-2"/>
+          <c:w val="0.29705769262918569"/>
+          <c:h val="0.62993221499486474"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -696,7 +695,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -784,7 +783,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -829,7 +828,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -848,7 +847,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -869,9 +868,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="57000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -890,8 +889,8 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="50000"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -920,7 +919,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1039,10 +1038,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1053,7 +1049,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1082,7 +1078,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1090,10 +1086,7 @@
           <a:noFill/>
           <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:ln>
           <a:effectLst/>
@@ -1103,7 +1096,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1132,6 +1125,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67385973606446059"/>
+          <c:y val="0.11197211197656896"/>
+          <c:w val="0.32614026393553952"/>
+          <c:h val="0.58578602203026509"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1145,7 +1148,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2295,16 +2298,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2334,13 +2337,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2670,30 +2673,30 @@
   <dimension ref="A1:BS6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="10" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="7" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" style="7" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="7"/>
     <col min="11" max="11" width="17.1640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="17"/>
-    <col min="13" max="13" width="10.83203125" style="13"/>
-    <col min="14" max="14" width="10.83203125" style="17"/>
-    <col min="15" max="15" width="10.83203125" style="13"/>
-    <col min="16" max="16" width="10.83203125" style="17"/>
-    <col min="17" max="17" width="10.83203125" style="13"/>
-    <col min="18" max="18" width="10.83203125" style="17"/>
-    <col min="19" max="19" width="10.83203125" style="13"/>
-    <col min="20" max="20" width="12.1640625" style="17" customWidth="1"/>
-    <col min="21" max="21" width="12" style="13" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="14"/>
+    <col min="13" max="13" width="10.83203125" style="10"/>
+    <col min="14" max="14" width="10.83203125" style="14"/>
+    <col min="15" max="15" width="10.83203125" style="10"/>
+    <col min="16" max="16" width="10.83203125" style="14"/>
+    <col min="17" max="17" width="10.83203125" style="10"/>
+    <col min="18" max="18" width="10.83203125" style="14"/>
+    <col min="19" max="19" width="10.83203125" style="10"/>
+    <col min="20" max="20" width="12.1640625" style="14" customWidth="1"/>
+    <col min="21" max="21" width="12" style="10" customWidth="1"/>
     <col min="22" max="23" width="10.83203125" style="7"/>
     <col min="24" max="24" width="19.83203125" style="7" customWidth="1"/>
     <col min="25" max="71" width="10.83203125" style="7"/>
@@ -2713,33 +2716,33 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="11" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
@@ -2786,11 +2789,11 @@
       <c r="BR1" s="3"/>
       <c r="BS1" s="3"/>
     </row>
-    <row r="2" spans="1:71" s="2" customFormat="1" ht="48">
+    <row r="2" spans="1:71" s="2" customFormat="1" ht="51">
       <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -2805,34 +2808,34 @@
       <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="V2" s="4" t="s">
@@ -2915,7 +2918,7 @@
       <c r="F3" s="7">
         <v>0.119554204660587</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="10">
         <v>354</v>
       </c>
       <c r="H3" s="7">
@@ -2930,39 +2933,39 @@
       <c r="K3" s="7">
         <v>0.11448834853090099</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="14">
         <f>M3/$E3*100</f>
         <v>6.4665007259904579</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="10">
         <v>1247</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="14">
         <f>O3/$E3*100</f>
         <v>4.4803982576229</v>
       </c>
       <c r="O3">
         <v>864</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="14">
         <f>Q3/$E3*100</f>
         <v>2.9195187720389959</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="10">
         <v>563</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="14">
         <f>S3/$E3*100</f>
         <v>1.804604853764779</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="10">
         <v>348</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="14">
         <f>U3/$E3*100</f>
         <v>3.2617714167185232</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="10">
         <v>629</v>
       </c>
       <c r="V3" s="7">
@@ -3000,7 +3003,7 @@
       <c r="F4" s="7">
         <v>0</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="10">
         <v>0</v>
       </c>
       <c r="H4" s="7">
@@ -3015,39 +3018,39 @@
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="14">
         <f t="shared" ref="L4:L6" si="0">M4/$E4*100</f>
         <v>0.32423538521099499</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="10">
         <v>67</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="14">
         <f t="shared" ref="N4:N6" si="1">O4/$E4*100</f>
         <v>0.45489740611691831</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="10">
         <v>94</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="14">
         <f t="shared" ref="P4:P6" si="2">Q4/$E4*100</f>
         <v>1.4372822299651569</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="10">
         <v>297</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="14">
         <f t="shared" ref="R4:R6" si="3">S4/$E4*100</f>
         <v>0.23228803716608595</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="10">
         <v>48</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="14">
         <f t="shared" ref="T4:T6" si="4">U4/$E4*100</f>
         <v>0.14034068912117695</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="10">
         <v>29</v>
       </c>
       <c r="V4" s="7">
@@ -3085,7 +3088,7 @@
       <c r="F5" s="8">
         <v>4.9001820000000001E-2</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
       <c r="H5" s="7">
@@ -3100,39 +3103,39 @@
       <c r="K5" s="7">
         <v>4.9001820000000001E-2</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="14">
         <f t="shared" si="0"/>
         <v>2.1815500715617815</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="10">
         <v>503</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="14">
         <f t="shared" si="1"/>
         <v>0.45973023376848682</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="10">
         <v>106</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="14">
         <f t="shared" si="2"/>
         <v>2.5762241401743506</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="10">
         <v>594</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="14">
         <f t="shared" si="3"/>
         <v>0.16047187405126426</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="10">
         <v>37</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="14">
         <f t="shared" si="4"/>
         <v>0.30793251507134495</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="10">
         <v>71</v>
       </c>
       <c r="V5" s="8">
@@ -3170,7 +3173,7 @@
       <c r="F6" s="7">
         <v>9.1491308325708997E-4</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="10">
         <v>0</v>
       </c>
       <c r="H6" s="7">
@@ -3185,39 +3188,39 @@
       <c r="K6" s="7">
         <v>0.132662397072278</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="14">
         <f t="shared" si="0"/>
         <v>0.85763293310463129</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="10">
         <v>160</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="14">
         <f t="shared" si="1"/>
         <v>2.5621783876500857</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="10">
         <v>478</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="14">
         <f t="shared" si="2"/>
         <v>10.983061749571183</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="10">
         <v>2049</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="14">
         <f t="shared" si="3"/>
         <v>4.0255145797598626</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="10">
         <v>751</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="14">
         <f t="shared" si="4"/>
         <v>2.7819468267581473</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="10">
         <v>519</v>
       </c>
       <c r="V6" s="7">

--- a/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
+++ b/analyses/metagomics/susvsink/susvsink-metagomics-go-comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/metagomics/susvsink/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903623D-3A64-8F41-907E-D2516FF19ED8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E229F42-79F4-3E48-9F2A-AD34D1AFDC16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="7200" windowWidth="25600" windowHeight="14660" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
+    <workbookView xWindow="3320" yWindow="5360" windowWidth="25600" windowHeight="14660" xr2:uid="{F273551E-9FEB-5548-BBD9-F9B9F48DA798}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="1" r:id="rId1"/>
@@ -332,10 +332,7 @@
           <a:pPr>
             <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -394,9 +391,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="61000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -415,9 +412,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050">
-                  <a:alpha val="61000"/>
-                </a:srgbClr>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -436,7 +431,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -518,13 +513,13 @@
                   <c:v>100 m suspended</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>965 m suspended</c:v>
+                  <c:v>100 m sinking</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100 m sinking</c:v>
+                  <c:v>965 m sinking</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>965 m sinking</c:v>
+                  <c:v>965 m suspended</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -539,13 +534,13 @@
                   <c:v>6.4665007259904579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32423538521099499</c:v>
+                  <c:v>2.1815500715617815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1815500715617815</c:v>
+                  <c:v>0.85763293310463129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85763293310463129</c:v>
+                  <c:v>0.32423538521099499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,7 +575,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -598,10 +593,7 @@
             <a:pPr>
               <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -645,10 +637,7 @@
             <a:pPr>
               <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -661,6 +650,7 @@
         <c:crossAx val="1693857887"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -697,10 +687,7 @@
           <a:pPr>
             <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -785,10 +772,7 @@
           <a:pPr>
             <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -847,9 +831,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="61000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -868,9 +852,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050">
-                  <a:alpha val="57000"/>
-                </a:srgbClr>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -889,7 +871,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -971,13 +953,13 @@
                   <c:v>100 m suspended</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>965 m suspended</c:v>
+                  <c:v>100 m sinking</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100 m sinking</c:v>
+                  <c:v>965 m sinking</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>965 m sinking</c:v>
+                  <c:v>965 m suspended</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -992,13 +974,13 @@
                   <c:v>2.9195187720389959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4372822299651569</c:v>
+                  <c:v>2.5762241401743506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5762241401743506</c:v>
+                  <c:v>10.983061749571183</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.983061749571183</c:v>
+                  <c:v>1.4372822299651569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,7 +1015,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1051,10 +1033,7 @@
             <a:pPr>
               <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1098,10 +1077,7 @@
             <a:pPr>
               <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1114,6 +1090,7 @@
         <c:crossAx val="1693857887"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1150,10 +1127,7 @@
           <a:pPr>
             <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2300,13 +2274,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2336,13 +2310,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2672,10 +2646,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD53EBE-D2D2-9B43-AAF1-36618F3EEAE2}">
   <dimension ref="A1:BS6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2986,257 +2960,257 @@
     </row>
     <row r="4" spans="1:71">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>965</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>20664</v>
-      </c>
-      <c r="F4" s="7">
+        <v>23057</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4.9001820000000001E-2</v>
+      </c>
+      <c r="G4" s="11">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
       <c r="H4" s="7">
-        <v>0.13043478260869501</v>
+        <v>0.1215971</v>
       </c>
       <c r="I4" s="7">
-        <v>0.115942028985507</v>
+        <v>0.10163339</v>
       </c>
       <c r="J4" s="7">
-        <v>0.21014492753623101</v>
+        <v>6.5335749999999998E-2</v>
       </c>
       <c r="K4" s="7">
-        <v>0</v>
+        <v>4.9001820000000001E-2</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" ref="L4:L6" si="0">M4/$E4*100</f>
-        <v>0.32423538521099499</v>
+        <f t="shared" ref="L4:L5" si="0">M4/$E4*100</f>
+        <v>2.1815500715617815</v>
       </c>
       <c r="M4" s="10">
-        <v>67</v>
+        <v>503</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:N6" si="1">O4/$E4*100</f>
-        <v>0.45489740611691831</v>
+        <f t="shared" ref="N4:N5" si="1">O4/$E4*100</f>
+        <v>0.45973023376848682</v>
       </c>
       <c r="O4" s="10">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="P4" s="14">
-        <f t="shared" ref="P4:P6" si="2">Q4/$E4*100</f>
-        <v>1.4372822299651569</v>
+        <f t="shared" ref="P4:P5" si="2">Q4/$E4*100</f>
+        <v>2.5762241401743506</v>
       </c>
       <c r="Q4" s="10">
-        <v>297</v>
+        <v>594</v>
       </c>
       <c r="R4" s="14">
-        <f t="shared" ref="R4:R6" si="3">S4/$E4*100</f>
-        <v>0.23228803716608595</v>
+        <f t="shared" ref="R4:R5" si="3">S4/$E4*100</f>
+        <v>0.16047187405126426</v>
       </c>
       <c r="S4" s="10">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="T4" s="14">
-        <f t="shared" ref="T4:T6" si="4">U4/$E4*100</f>
-        <v>0.14034068912117695</v>
+        <f t="shared" ref="T4:T5" si="4">U4/$E4*100</f>
+        <v>0.30793251507134495</v>
       </c>
       <c r="U4" s="10">
-        <v>29</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0.123188405797101</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0.16666666666666599</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0.15942028985507201</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>0.16666666666666599</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>0.123188405797101</v>
+        <v>71</v>
+      </c>
+      <c r="V4" s="8">
+        <v>8.8929220000000003E-2</v>
+      </c>
+      <c r="W4" s="8">
+        <v>0.11978221</v>
+      </c>
+      <c r="X4" s="8">
+        <v>0.11978221</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>3.8112519999999997E-2</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>7.6225050000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:71">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>94</v>
+        <v>965</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>23057</v>
-      </c>
-      <c r="F5" s="8">
-        <v>4.9001820000000001E-2</v>
-      </c>
-      <c r="G5" s="11">
+        <v>18656</v>
+      </c>
+      <c r="F5" s="7">
+        <v>9.1491308325708997E-4</v>
+      </c>
+      <c r="G5" s="10">
         <v>0</v>
       </c>
       <c r="H5" s="7">
-        <v>0.1215971</v>
+        <v>0.18389752973467499</v>
       </c>
       <c r="I5" s="7">
-        <v>0.10163339</v>
+        <v>0.161939615736505</v>
       </c>
       <c r="J5" s="7">
-        <v>6.5335749999999998E-2</v>
+        <v>0.103385178408051</v>
       </c>
       <c r="K5" s="7">
-        <v>4.9001820000000001E-2</v>
+        <v>0.132662397072278</v>
       </c>
       <c r="L5" s="14">
         <f t="shared" si="0"/>
-        <v>2.1815500715617815</v>
+        <v>0.85763293310463129</v>
       </c>
       <c r="M5" s="10">
-        <v>503</v>
+        <v>160</v>
       </c>
       <c r="N5" s="14">
         <f t="shared" si="1"/>
-        <v>0.45973023376848682</v>
+        <v>2.5621783876500857</v>
       </c>
       <c r="O5" s="10">
-        <v>106</v>
+        <v>478</v>
       </c>
       <c r="P5" s="14">
         <f t="shared" si="2"/>
-        <v>2.5762241401743506</v>
+        <v>10.983061749571183</v>
       </c>
       <c r="Q5" s="10">
-        <v>594</v>
+        <v>2049</v>
       </c>
       <c r="R5" s="14">
         <f t="shared" si="3"/>
-        <v>0.16047187405126426</v>
+        <v>4.0255145797598626</v>
       </c>
       <c r="S5" s="10">
-        <v>37</v>
+        <v>751</v>
       </c>
       <c r="T5" s="14">
         <f t="shared" si="4"/>
-        <v>0.30793251507134495</v>
+        <v>2.7819468267581473</v>
       </c>
       <c r="U5" s="10">
-        <v>71</v>
-      </c>
-      <c r="V5" s="8">
-        <v>8.8929220000000003E-2</v>
-      </c>
-      <c r="W5" s="8">
-        <v>0.11978221</v>
-      </c>
-      <c r="X5" s="8">
-        <v>0.11978221</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>3.8112519999999997E-2</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>7.6225050000000003E-2</v>
+        <v>519</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0.12625800548947799</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0.171088746569075</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0.18206770356816099</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>8.3257090576395201E-2</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0.143641354071363</v>
       </c>
     </row>
     <row r="6" spans="1:71">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>965</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>18656</v>
+        <v>20664</v>
       </c>
       <c r="F6" s="7">
-        <v>9.1491308325708997E-4</v>
+        <v>0</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
       </c>
       <c r="H6" s="7">
-        <v>0.18389752973467499</v>
+        <v>0.13043478260869501</v>
       </c>
       <c r="I6" s="7">
-        <v>0.161939615736505</v>
+        <v>0.115942028985507</v>
       </c>
       <c r="J6" s="7">
-        <v>0.103385178408051</v>
+        <v>0.21014492753623101</v>
       </c>
       <c r="K6" s="7">
-        <v>0.132662397072278</v>
+        <v>0</v>
       </c>
       <c r="L6" s="14">
-        <f t="shared" si="0"/>
-        <v>0.85763293310463129</v>
+        <f>M6/$E6*100</f>
+        <v>0.32423538521099499</v>
       </c>
       <c r="M6" s="10">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" si="1"/>
-        <v>2.5621783876500857</v>
+        <f>O6/$E6*100</f>
+        <v>0.45489740611691831</v>
       </c>
       <c r="O6" s="10">
-        <v>478</v>
+        <v>94</v>
       </c>
       <c r="P6" s="14">
-        <f t="shared" si="2"/>
-        <v>10.983061749571183</v>
+        <f>Q6/$E6*100</f>
+        <v>1.4372822299651569</v>
       </c>
       <c r="Q6" s="10">
-        <v>2049</v>
+        <v>297</v>
       </c>
       <c r="R6" s="14">
-        <f t="shared" si="3"/>
-        <v>4.0255145797598626</v>
+        <f>S6/$E6*100</f>
+        <v>0.23228803716608595</v>
       </c>
       <c r="S6" s="10">
-        <v>751</v>
+        <v>48</v>
       </c>
       <c r="T6" s="14">
-        <f t="shared" si="4"/>
-        <v>2.7819468267581473</v>
+        <f>U6/$E6*100</f>
+        <v>0.14034068912117695</v>
       </c>
       <c r="U6" s="10">
-        <v>519</v>
+        <v>29</v>
       </c>
       <c r="V6" s="7">
-        <v>0.12625800548947799</v>
+        <v>0.123188405797101</v>
       </c>
       <c r="W6" s="7">
-        <v>0.171088746569075</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="X6" s="7">
-        <v>0.18206770356816099</v>
+        <v>0.15942028985507201</v>
       </c>
       <c r="Y6" s="7">
-        <v>8.3257090576395201E-2</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="Z6" s="7">
-        <v>0.143641354071363</v>
+        <v>0.123188405797101</v>
       </c>
     </row>
   </sheetData>
